--- a/0-需求分析/用例图/示例数据绘图.xlsx
+++ b/0-需求分析/用例图/示例数据绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="241" yWindow="106" windowWidth="14807" windowHeight="8007" activeTab="4"/>
+    <workbookView xWindow="241" yWindow="106" windowWidth="14807" windowHeight="8007" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="实时速度" sheetId="1" r:id="rId1"/>
@@ -20,47 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
-  <si>
-    <t>老张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
   <si>
     <t>总距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +55,26 @@
   </si>
   <si>
     <t>150~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐嘉敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张成林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范云龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马辛斯基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -243,7 +224,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -379,7 +360,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,7 +496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -651,7 +632,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -787,7 +768,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -923,11 +904,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="244311232"/>
-        <c:axId val="244311792"/>
+        <c:axId val="169975296"/>
+        <c:axId val="169975856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244311232"/>
+        <c:axId val="169975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1007,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244311792"/>
+        <c:crossAx val="169975856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244311792"/>
+        <c:axId val="169975856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1130,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244311232"/>
+        <c:crossAx val="169975296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,6 +1259,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1333,19 +1315,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1385,11 +1367,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="244314592"/>
-        <c:axId val="244315152"/>
+        <c:axId val="169978656"/>
+        <c:axId val="169979216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244314592"/>
+        <c:axId val="169978656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244315152"/>
+        <c:crossAx val="169979216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1440,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244315152"/>
+        <c:axId val="169979216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,6 +1468,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1546,7 +1529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244314592"/>
+        <c:crossAx val="169978656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,6 +1618,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,19 +1685,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1773,19 +1757,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1845,19 +1829,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1897,11 +1881,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="244613424"/>
-        <c:axId val="244613984"/>
+        <c:axId val="170389504"/>
+        <c:axId val="170390064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244613424"/>
+        <c:axId val="170389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1928,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244613984"/>
+        <c:crossAx val="170390064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1952,7 +1936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244613984"/>
+        <c:axId val="170390064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,6 +1982,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2058,7 +2043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244613424"/>
+        <c:crossAx val="170389504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,6 +2057,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2178,6 +2164,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2244,19 +2231,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2311,19 +2298,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2378,19 +2365,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2430,8 +2417,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-100"/>
-        <c:axId val="244618464"/>
-        <c:axId val="244619024"/>
+        <c:axId val="170394544"/>
+        <c:axId val="170395104"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2467,19 +2454,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2519,11 +2506,11 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="100"/>
-        <c:axId val="244620144"/>
-        <c:axId val="244619584"/>
+        <c:axId val="170663408"/>
+        <c:axId val="170662848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244618464"/>
+        <c:axId val="170394544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2553,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244619024"/>
+        <c:crossAx val="170395104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2574,7 +2561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244619024"/>
+        <c:axId val="170395104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,6 +2608,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2681,12 +2669,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244618464"/>
+        <c:crossAx val="170394544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244619584"/>
+        <c:axId val="170662848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,6 +2706,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2778,12 +2767,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244620144"/>
+        <c:crossAx val="170663408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="244620144"/>
+        <c:axId val="170663408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244619584"/>
+        <c:crossAx val="170662848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2810,6 +2799,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2961,7 +2951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3097,7 +3087,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3233,7 +3223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3369,7 +3359,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3505,7 +3495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3641,11 +3631,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="244909872"/>
-        <c:axId val="244910432"/>
+        <c:axId val="170799952"/>
+        <c:axId val="170800512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244909872"/>
+        <c:axId val="170799952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,7 +3734,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244910432"/>
+        <c:crossAx val="170800512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3752,7 +3742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244910432"/>
+        <c:axId val="170800512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +3849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244909872"/>
+        <c:crossAx val="170799952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3980,6 +3970,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4046,19 +4037,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4118,19 +4109,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4190,19 +4181,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4242,11 +4233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="245426928"/>
-        <c:axId val="245427488"/>
+        <c:axId val="170804432"/>
+        <c:axId val="170804992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245426928"/>
+        <c:axId val="170804432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,7 +4280,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245427488"/>
+        <c:crossAx val="170804992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4297,7 +4288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245427488"/>
+        <c:axId val="170804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,6 +4335,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4404,7 +4396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245426928"/>
+        <c:crossAx val="170804432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,6 +4410,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4524,6 +4517,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4590,19 +4584,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4662,19 +4656,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4734,19 +4728,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>老张</c:v>
+                  <c:v>徐嘉敏</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小李</c:v>
+                  <c:v>张成林</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>老王</c:v>
+                  <c:v>萨利</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小明</c:v>
+                  <c:v>范云龙</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>小虎</c:v>
+                  <c:v>马辛斯基</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4786,11 +4780,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="245431408"/>
-        <c:axId val="245431968"/>
+        <c:axId val="169221152"/>
+        <c:axId val="169221712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245431408"/>
+        <c:axId val="169221152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4833,7 +4827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245431968"/>
+        <c:crossAx val="169221712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4841,7 +4835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245431968"/>
+        <c:axId val="169221712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,6 +4881,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4947,7 +4942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245431408"/>
+        <c:crossAx val="169221152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4961,6 +4956,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9392,8 +9388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
@@ -9446,8 +9442,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -9497,7 +9493,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3.3</v>
@@ -9547,7 +9543,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>4.3</v>
@@ -9597,7 +9593,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>7.5</v>
@@ -9647,7 +9643,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -9714,8 +9710,8 @@
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>7580</v>
@@ -9723,7 +9719,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>5790</v>
@@ -9731,7 +9727,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>6970</v>
@@ -9739,7 +9735,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>7630</v>
@@ -9747,7 +9743,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>900</v>
@@ -9762,34 +9758,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3420</v>
@@ -9809,7 +9805,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2430</v>
@@ -9829,7 +9825,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f>C6-C4-C3</f>
@@ -9854,7 +9850,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>7580</v>
@@ -9870,6 +9866,23 @@
       </c>
       <c r="G6">
         <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9884,22 +9897,22 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -9916,7 +9929,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -9933,7 +9946,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -9950,7 +9963,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -9967,7 +9980,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -9993,8 +10006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
@@ -10047,8 +10060,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -10098,7 +10111,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -10148,7 +10161,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>78</v>
@@ -10198,7 +10211,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>77</v>
@@ -10248,7 +10261,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>80</v>
@@ -10308,31 +10321,31 @@
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>120</v>
@@ -10352,7 +10365,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>180</v>
@@ -10372,7 +10385,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>190</v>
@@ -10401,32 +10414,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3420</v>
@@ -10446,7 +10459,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2430</v>
@@ -10466,7 +10479,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f>C7-C5-C4</f>
@@ -10491,7 +10504,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>7580</v>
